--- a/src/excel graphs/graphoutput.xlsx
+++ b/src/excel graphs/graphoutput.xlsx
@@ -8,16 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunilv/Desktop/screenshots/learnings/plug-the-cli/src/excel graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3FEE089-4135-B04E-AD23-11AAE55D5CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE34916-ADDA-704F-AF5F-D648C8D0A70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1840" yWindow="860" windowWidth="31700" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="usersheet" sheetId="1" r:id="rId1"/>
-    <sheet name="graphsheet" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -72,10 +70,10 @@
     <t>December</t>
   </si>
   <si>
-    <t>2023</t>
+    <t>Column1</t>
   </si>
   <si>
-    <t>2020</t>
+    <t>Column2</t>
   </si>
 </sst>
 </file>
@@ -254,7 +252,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2020</c:v>
+                  <c:v>Column1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -376,42 +374,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -430,7 +392,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2023</c:v>
+                  <c:v>Column2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -563,42 +525,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1457,8 +1383,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F9AB8BD6-8812-ED40-A43B-117904194745}" name="Table1" displayName="Table1" ref="D7:E19" totalsRowShown="0">
   <autoFilter ref="D7:E19" xr:uid="{F9AB8BD6-8812-ED40-A43B-117904194745}"/>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{3F5FE04C-E6F3-844E-814E-84F9046BB0E5}" name="2020"/>
-    <tableColumn id="3" xr3:uid="{2BD48398-6C88-A845-8711-1C188D9EA50E}" name="2023"/>
+    <tableColumn id="2" xr3:uid="{3F5FE04C-E6F3-844E-814E-84F9046BB0E5}" name="Column1"/>
+    <tableColumn id="3" xr3:uid="{2BD48398-6C88-A845-8711-1C188D9EA50E}" name="Column2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1764,7 +1690,7 @@
   <dimension ref="C6:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="E7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1778,31 +1704,19 @@
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
         <v>1</v>
       </c>
     </row>
@@ -1810,110 +1724,50 @@
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C15" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C17" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
@@ -1930,16 +1784,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9410579C-9A42-5347-8160-C7A36227FE20}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/excel graphs/graphoutput.xlsx
+++ b/src/excel graphs/graphoutput.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunilv/Desktop/screenshots/learnings/plug-the-cli/src/excel graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE34916-ADDA-704F-AF5F-D648C8D0A70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683DC085-33EB-2B4D-B8AA-71647A3756DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1840" yWindow="860" windowWidth="31700" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="usersheet" sheetId="1" r:id="rId1"/>
+    <sheet name="graphsheet" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1690,7 +1691,7 @@
   <dimension ref="C6:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E7" sqref="D7:E7"/>
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1784,4 +1785,16 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9410579C-9A42-5347-8160-C7A36227FE20}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/excel graphs/graphoutput.xlsx
+++ b/src/excel graphs/graphoutput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunilv/Desktop/screenshots/learnings/plug-the-cli/src/excel graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683DC085-33EB-2B4D-B8AA-71647A3756DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC5CC86-64A8-CA44-A032-52A3D42D078A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1840" yWindow="860" windowWidth="31700" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1691,7 +1691,7 @@
   <dimension ref="C6:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:E7"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
